--- a/excel_datos.xlsx
+++ b/excel_datos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>DATOS PERSONALES</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>NAHOMY LISSETTE</t>
+  </si>
+  <si>
+    <t>ME GUSTA LA MÚSICA</t>
   </si>
 </sst>
 </file>
@@ -73,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -175,6 +178,24 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -184,48 +205,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -234,6 +216,63 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E10"/>
+  <dimension ref="B1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,60 +568,60 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="8">
+      <c r="C7" s="6"/>
+      <c r="D7" s="17">
         <v>38319</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
@@ -590,14 +629,29 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+    </row>
+    <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="B11:E12"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="B5:C6"/>

--- a/excel_datos.xlsx
+++ b/excel_datos.xlsx
@@ -44,7 +44,7 @@
     <t>NAHOMY LISSETTE</t>
   </si>
   <si>
-    <t>ME GUSTA LA MÚSICA</t>
+    <t>ME GUSTA LA MÚSICA Y BAILAR</t>
   </si>
 </sst>
 </file>
@@ -208,6 +208,24 @@
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -255,24 +273,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,7 +557,7 @@
   <dimension ref="B1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,60 +568,60 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="16"/>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="17">
+      <c r="C7" s="12"/>
+      <c r="D7" s="23">
         <v>38319</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
@@ -636,18 +636,18 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/excel_datos.xlsx
+++ b/excel_datos.xlsx
@@ -44,7 +44,7 @@
     <t>NAHOMY LISSETTE</t>
   </si>
   <si>
-    <t>ME GUSTA LA MÚSICA Y BAILAR</t>
+    <t>ME GUSTA LA MÚSICA  (KPOP) Y BAILAR</t>
   </si>
 </sst>
 </file>
@@ -557,7 +557,7 @@
   <dimension ref="B1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B11" sqref="B11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
